--- a/StructureDefinition-padi-informatioRecipient-extension.xlsx
+++ b/StructureDefinition-padi-informatioRecipient-extension.xlsx
@@ -248,7 +248,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|RelatedPerson)
 </t>
   </si>
 </sst>

--- a/StructureDefinition-padi-informatioRecipient-extension.xlsx
+++ b/StructureDefinition-padi-informatioRecipient-extension.xlsx
@@ -140,7 +140,7 @@
     <t>Information Recipient</t>
   </si>
   <si>
-    <t xml:space="preserve"> The Information Recipient Extension records the intended recipient of the advance directive information at the time the document was created.</t>
+    <t>The Information Recipient Extension records the intended recipient of the advance directive information at the time the document was created.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
